--- a/StructureDefinition-pacio-nhcs.xlsx
+++ b/StructureDefinition-pacio-nhcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T16:24:56-07:00</t>
+    <t>2021-09-15T21:08:33-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pacio-nhcs.xlsx
+++ b/StructureDefinition-pacio-nhcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T21:08:33-07:00</t>
+    <t>2021-09-16T08:49:25-07:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pacio-nhcs.xlsx
+++ b/StructureDefinition-pacio-nhcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-16T08:49:25-07:00</t>
+    <t>2021-09-29T17:17:11-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -488,7 +488,7 @@
     <t>An extension to indicate the level of assistance required for a patient during an assessment.</t>
   </si>
   <si>
-    <t>Associated with prior level of cognitive function to provide a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
+    <t>Associated with the Narrative History of Cognitive Status profile to provide a high-level indication of assistance required for the person’s baseline ability (cognitive function immediately preceding the current admission, illness, or exacerbation for a patient) to answer cognitive related clinical questions. The CMS Assessment answer list LL4309-2 provides possible values for this extension.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>

--- a/StructureDefinition-pacio-nhcs.xlsx
+++ b/StructureDefinition-pacio-nhcs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T17:17:11-07:00</t>
+    <t>2021-09-30T07:46:12-07:00</t>
   </si>
   <si>
     <t>Publisher</t>
